--- a/Scripts_Data/Data_Vehicle/ARTTU.xlsx
+++ b/Scripts_Data/Data_Vehicle/ARTTU.xlsx
@@ -1,22 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Desktop/FSAE/Motor Control/VehicleModel/Scripts_Data/Data_Vehicle/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AF3101-8249-CE4D-866D-452CCC23842D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="8080" yWindow="1360" windowWidth="25360" windowHeight="18980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="1" r:id="rId5"/>
-    <sheet name="Motor" sheetId="2" r:id="rId6"/>
-    <sheet name="BatteryOC" sheetId="3" r:id="rId7"/>
-    <sheet name="HardpointsFr" sheetId="4" r:id="rId8"/>
-    <sheet name="HardpointsRr" sheetId="5" r:id="rId9"/>
-    <sheet name="Suspension" sheetId="6" r:id="rId10"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Motor" sheetId="2" r:id="rId2"/>
+    <sheet name="BatteryOC" sheetId="3" r:id="rId3"/>
+    <sheet name="HardpointsFr" sheetId="4" r:id="rId4"/>
+    <sheet name="HardpointsRr" sheetId="5" r:id="rId5"/>
+    <sheet name="Suspension" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="191029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -38,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="129">
   <si>
     <t>Category</t>
   </si>
@@ -403,77 +425,69 @@
     <t>PushrodOut</t>
   </si>
   <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Preload</t>
+  </si>
+  <si>
+    <t>Damping</t>
+  </si>
+  <si>
+    <t>Stiffness</t>
+  </si>
+  <si>
     <t>BCrod</t>
-  </si>
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>Front</t>
-  </si>
-  <si>
-    <t>Rear</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Preload</t>
-  </si>
-  <si>
-    <t>Damping</t>
-  </si>
-  <si>
-    <t>Stiffness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="60" formatCode="0.000000000000"/>
-    <numFmt numFmtId="61" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="62" formatCode="0.000"/>
-    <numFmt numFmtId="63" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,8 +536,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="52">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1188,333 +1208,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00FF00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00FF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00FF00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00FF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="104">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="9" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="6" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="6" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" fillId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" fillId="6" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" fillId="6" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" fillId="6" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" fillId="6" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" fillId="6" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="63" fontId="0" fillId="6" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1524,36 +1469,89 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff5b9bd5"/>
-      <rgbColor rgb="ff9cc2e5"/>
-      <rgbColor rgb="ffbdd6ee"/>
-      <rgbColor rgb="ffdeeaf6"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff878787"/>
-      <rgbColor rgb="ff42719b"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FF9CC2E5"/>
+      <rgbColor rgb="FFBDD6EE"/>
+      <rgbColor rgb="FFDEEAF6"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF42719B"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1562,10 +1560,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.144614"/>
-          <c:y val="0.0551577"/>
-          <c:w val="0.850386"/>
-          <c:h val="0.766261"/>
+          <c:x val="0.14461399999999999"/>
+          <c:y val="5.5157699999999997E-2"/>
+          <c:w val="0.85038599999999998"/>
+          <c:h val="0.76626099999999997"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1578,9 +1576,6 @@
             <c:v>Series1</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="42719B"/>
-            </a:solidFill>
             <a:ln w="47625" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="42719B"/>
@@ -1607,31 +1602,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica Neue"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strLit>
               <c:ptCount val="49"/>
@@ -1779,163 +1749,181 @@
               <c:pt idx="47">
                 <c:v>Engine Speed [rpm]</c:v>
               </c:pt>
-              <c:pt idx="48">
-                <c:v/>
-              </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Motor'!$C$1:$C$48,'Motor'!$B$1</c:f>
+              <c:f>(Motor!$C$1:$C$48,Motor!$B$1)</c:f>
               <c:numCache>
-                <c:ptCount val="47"/>
+                <c:formatCode>0.0000000000000</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0" formatCode="@">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>51.030690</c:v>
+                  <c:v>51.0306904761905</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>44.843690</c:v>
+                <c:pt idx="38" formatCode="0.000000000000">
+                  <c:v>44.843689833269003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>36.821569</c:v>
+                  <c:v>36.821568821896101</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>30.062729</c:v>
+                <c:pt idx="40" formatCode="0.000000000000">
+                  <c:v>30.062728824122001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>25.337074</c:v>
+                  <c:v>25.337074314098199</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21.037412</c:v>
+                  <c:v>21.037412309536101</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17.084032</c:v>
+                  <c:v>17.084032426778201</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.418489</c:v>
+                  <c:v>13.4184887499186</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>9.995927</c:v>
+                <c:pt idx="45" formatCode="0.00000000000000">
+                  <c:v>9.9959268483305195</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.776965</c:v>
+                <c:pt idx="46" formatCode="0.00000000000000">
+                  <c:v>6.7769653459149204</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.739575</c:v>
+                <c:pt idx="47" formatCode="0.00000000000000">
+                  <c:v>3.7395748460445501</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="@">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E9C-9B47-BEDE-39A522C262A1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:lineChart>
@@ -1964,7 +1952,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1972,7 +1960,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+                  <a:rPr sz="1800" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1983,7 +1971,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2002,19 +1989,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Helvetica Neue"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
         <c:tickLblSkip val="5"/>
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
@@ -2043,7 +2032,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2051,7 +2040,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+                  <a:rPr sz="1800" b="0" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2062,10 +2051,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2083,13 +2071,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Helvetica Neue"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -2111,6 +2100,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2125,11 +2115,16 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2143,18 +2138,24 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="2D Line Chart"/>
+        <xdr:cNvPr id="2" name="2D Line Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2762249" y="1028700"/>
-        <a:ext cx="6300636" cy="4949429"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2164,7 +2165,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -2366,7 +2367,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2384,7 +2385,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2413,7 +2414,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2438,7 +2439,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2463,7 +2464,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2488,7 +2489,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2513,7 +2514,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2538,7 +2539,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2563,7 +2564,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2588,7 +2589,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2613,7 +2614,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2626,9 +2627,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2645,7 +2652,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2663,7 +2670,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2688,7 +2695,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2713,7 +2720,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2738,7 +2745,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2763,7 +2770,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2788,7 +2795,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2813,7 +2820,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2838,7 +2845,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2863,7 +2870,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2888,7 +2895,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2901,9 +2908,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2917,7 +2930,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2935,7 +2948,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2964,7 +2977,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2989,7 +3002,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3014,7 +3027,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3039,7 +3052,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3064,7 +3077,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3089,7 +3102,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3114,7 +3127,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3139,7 +3152,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3164,7 +3177,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3177,719 +3190,727 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="81.1719" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="81.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.1" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="9">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" t="s" s="12">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="102"/>
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="13">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="14">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" ht="14.1" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>350</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" t="s" s="12">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="102"/>
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>55</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="18">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s" s="19">
+      <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>1600</v>
       </c>
-      <c r="D6" t="s" s="21">
+      <c r="D6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="18">
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s" s="19">
+      <c r="B7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="20">
-        <v>4.23</v>
-      </c>
-      <c r="D7" t="s" s="21">
+      <c r="C7" s="18">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s" s="23">
+      <c r="E7" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="14.1" customHeight="1">
-      <c r="A8" t="s" s="6">
+    <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>-0.02</v>
       </c>
-      <c r="D8" t="s" s="9">
+      <c r="D8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s" s="24">
+      <c r="E8" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" t="s" s="26">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="103"/>
+      <c r="B9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="24">
         <v>-0.62</v>
       </c>
-      <c r="D9" t="s" s="28">
+      <c r="D9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s" s="29">
+      <c r="E9" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" t="s" s="26">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="103"/>
+      <c r="B10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="24">
         <v>1</v>
       </c>
-      <c r="D10" t="s" s="28">
+      <c r="D10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" t="s" s="26">
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="103"/>
+      <c r="B11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="24">
         <v>1</v>
       </c>
-      <c r="D11" t="s" s="28">
+      <c r="D11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" t="s" s="26">
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="103"/>
+      <c r="B12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="24">
         <v>50</v>
       </c>
-      <c r="D12" t="s" s="28">
+      <c r="D12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" t="s" s="26">
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="103"/>
+      <c r="B13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="24">
         <v>1.3</v>
       </c>
-      <c r="D13" t="s" s="28">
+      <c r="D13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" t="s" s="12">
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="102"/>
+      <c r="B14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="17">
-        <v>1.225</v>
-      </c>
-      <c r="D14" t="s" s="14">
+      <c r="C14" s="15">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E14" t="s" s="31">
+      <c r="E14" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" ht="14.1" customHeight="1">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <v>254</v>
       </c>
-      <c r="D15" t="s" s="9">
+      <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s" s="24">
+      <c r="E15" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" t="s" s="26">
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="103"/>
+      <c r="B16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="24">
         <v>45.2</v>
       </c>
-      <c r="D16" t="s" s="28">
+      <c r="D16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E16" t="s" s="29">
+      <c r="E16" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" t="s" s="26">
+    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="103"/>
+      <c r="B17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="24">
         <v>0.45</v>
       </c>
-      <c r="D17" t="s" s="28">
+      <c r="D17" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E17" t="s" s="29">
+      <c r="E17" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" t="s" s="26">
+    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="103"/>
+      <c r="B18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="24">
         <v>2</v>
       </c>
-      <c r="D18" t="s" s="28">
+      <c r="D18" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s" s="29">
+      <c r="E18" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" t="s" s="26">
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="103"/>
+      <c r="B19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="24">
         <v>31.75</v>
       </c>
-      <c r="D19" t="s" s="28">
+      <c r="D19" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E19" t="s" s="29">
+      <c r="E19" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" t="s" s="26">
+    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="103"/>
+      <c r="B20" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="24">
         <v>17</v>
       </c>
-      <c r="D20" t="s" s="28">
+      <c r="D20" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E20" t="s" s="29">
+      <c r="E20" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" t="s" s="12">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="102"/>
+      <c r="B21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="15">
         <v>6</v>
       </c>
-      <c r="D21" t="s" s="14">
+      <c r="D21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E21" t="s" s="31">
+      <c r="E21" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" ht="14.1" customHeight="1">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="14">
         <v>1</v>
       </c>
-      <c r="D22" t="s" s="9">
+      <c r="D22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" t="s" s="26">
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="103"/>
+      <c r="B23" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="24">
         <v>219.02</v>
       </c>
-      <c r="D23" t="s" s="28">
+      <c r="D23" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E23" t="s" s="29">
+      <c r="E23" s="26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" t="s" s="26">
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="103"/>
+      <c r="B24" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="27">
-        <v>-0.016</v>
-      </c>
-      <c r="D24" t="s" s="28">
+      <c r="C24" s="24">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E24" t="s" s="29">
+      <c r="E24" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" t="s" s="26">
+    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="103"/>
+      <c r="B25" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="24">
         <v>1.4</v>
       </c>
-      <c r="D25" t="s" s="28">
+      <c r="D25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" t="s" s="29">
+      <c r="E25" s="26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" t="s" s="26">
+    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="103"/>
+      <c r="B26" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="27" cm="1">
+      <c r="C26" s="24" cm="1">
         <f t="array" ref="C26">C4/4</f>
         <v>87.5</v>
       </c>
-      <c r="D26" t="s" s="28">
+      <c r="D26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E26" t="s" s="29">
+      <c r="E26" s="26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" t="s" s="26">
+    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="103"/>
+      <c r="B27" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="27">
-        <v>0.0001</v>
-      </c>
-      <c r="D27" t="s" s="28">
+      <c r="C27" s="24">
+        <v>1E-4</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E27" t="s" s="29">
+      <c r="E27" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" t="s" s="26">
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="103"/>
+      <c r="B28" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="24">
         <v>1</v>
       </c>
-      <c r="D28" t="s" s="28">
+      <c r="D28" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E28" t="s" s="29">
+      <c r="E28" s="26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" t="s" s="26">
+    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="103"/>
+      <c r="B29" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="27">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="D29" t="s" s="28">
+      <c r="C29" s="24">
+        <v>85.4</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E29" t="s" s="29">
+      <c r="E29" s="26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" t="s" s="26">
+    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="103"/>
+      <c r="B30" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="27">
-        <v>0.0001</v>
-      </c>
-      <c r="D30" t="s" s="28">
+      <c r="C30" s="24">
+        <v>1E-4</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E30" t="s" s="29">
+      <c r="E30" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" t="s" s="26">
+    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="103"/>
+      <c r="B31" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="24">
         <v>800</v>
       </c>
-      <c r="D31" t="s" s="28">
+      <c r="D31" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E31" t="s" s="29">
+      <c r="E31" s="26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" t="s" s="12">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="102"/>
+      <c r="B32" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="15">
         <v>1000</v>
       </c>
-      <c r="D32" t="s" s="14">
+      <c r="D32" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E32" t="s" s="31">
+      <c r="E32" s="28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" ht="14.1" customHeight="1">
-      <c r="A33" t="s" s="32">
+    <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C33" t="s" s="8">
+      <c r="C33" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D33" t="s" s="9">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="33"/>
-      <c r="B34" t="s" s="26">
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="99"/>
+      <c r="B34" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="24">
         <v>0.01</v>
       </c>
-      <c r="D34" t="s" s="28">
+      <c r="D34" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E34" t="s" s="29">
+      <c r="E34" s="26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="33"/>
-      <c r="B35" t="s" s="26">
+    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="99"/>
+      <c r="B35" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="24">
         <v>1</v>
       </c>
-      <c r="D35" t="s" s="28">
+      <c r="D35" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E35" t="s" s="29">
+      <c r="E35" s="26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="33"/>
-      <c r="B36" t="s" s="26">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="99"/>
+      <c r="B36" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="24">
         <v>0.98</v>
       </c>
-      <c r="D36" t="s" s="28">
+      <c r="D36" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E36" t="s" s="29">
+      <c r="E36" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="33"/>
-      <c r="B37" t="s" s="26">
+    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="99"/>
+      <c r="B37" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="24">
         <v>1</v>
       </c>
-      <c r="D37" t="s" s="28">
+      <c r="D37" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E37" t="s" s="29">
+      <c r="E37" s="26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="33"/>
-      <c r="B38" t="s" s="26">
+    <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="99"/>
+      <c r="B38" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="24">
         <v>1</v>
       </c>
-      <c r="D38" t="s" s="28">
+      <c r="D38" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E38" t="s" s="29">
+      <c r="E38" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="33"/>
-      <c r="B39" t="s" s="26">
+    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="99"/>
+      <c r="B39" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="24">
         <v>5</v>
       </c>
-      <c r="D39" t="s" s="28">
+      <c r="D39" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="30"/>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" t="s" s="35">
+      <c r="E39" s="27"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="100"/>
+      <c r="B40" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="15">
         <v>1</v>
       </c>
-      <c r="D40" t="s" s="14">
+      <c r="D40" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" ht="14.1" customHeight="1">
-      <c r="A41" t="s" s="36">
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="s" s="37">
+      <c r="B41" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="14">
         <v>30.8</v>
       </c>
-      <c r="D41" t="s" s="9">
+      <c r="D41" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="38"/>
-      <c r="B42" t="s" s="39">
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="24">
         <v>50</v>
       </c>
-      <c r="D42" t="s" s="28">
+      <c r="D42" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="30"/>
-    </row>
-    <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="38"/>
-      <c r="B43" t="s" s="39">
+      <c r="E42" s="27"/>
+    </row>
+    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="32"/>
+      <c r="B43" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="24">
         <v>3</v>
       </c>
-      <c r="D43" t="s" s="28">
+      <c r="D43" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="30"/>
-    </row>
-    <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="38"/>
-      <c r="B44" t="s" s="39">
+      <c r="E43" s="27"/>
+    </row>
+    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="32"/>
+      <c r="B44" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="24">
         <v>48</v>
       </c>
-      <c r="D44" t="s" s="28">
+      <c r="D44" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="30"/>
-    </row>
-    <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="38"/>
-      <c r="B45" t="s" s="39">
+      <c r="E44" s="27"/>
+    </row>
+    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="32"/>
+      <c r="B45" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="24">
         <v>10</v>
       </c>
-      <c r="D45" t="s" s="28">
+      <c r="D45" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="30"/>
-    </row>
-    <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="38"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="30"/>
-    </row>
-    <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="38"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="30"/>
-    </row>
-    <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="38"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="30"/>
-    </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="15"/>
+      <c r="E45" s="27"/>
+    </row>
+    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="32"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="27"/>
+    </row>
+    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="32"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="27"/>
+    </row>
+    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="32"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="27"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3901,7 +3922,7 @@
     <mergeCell ref="A22:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3909,454 +3930,455 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.17188" style="47" customWidth="1"/>
-    <col min="2" max="2" width="20" style="47" customWidth="1"/>
-    <col min="3" max="3" width="14" style="47" customWidth="1"/>
-    <col min="4" max="16384" width="8.85156" style="47" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="48"/>
-      <c r="B1" t="s" s="49">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s" s="50">
+      <c r="C1" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45">
         <v>0</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="54">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="44"/>
+      <c r="B3" s="47">
         <v>100</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52">
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45">
         <v>200</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="54">
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="44"/>
+      <c r="B5" s="47">
         <v>300</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52">
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45">
         <v>400</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="54">
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="44"/>
+      <c r="B7" s="47">
         <v>500</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52">
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45">
         <v>600</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="54">
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="44"/>
+      <c r="B9" s="47">
         <v>700</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52">
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="44"/>
+      <c r="B10" s="45">
         <v>800</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="54">
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="44"/>
+      <c r="B11" s="47">
         <v>900</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52">
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="44"/>
+      <c r="B12" s="45">
         <v>1000</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="54">
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="44"/>
+      <c r="B13" s="47">
         <v>1100</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52">
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45">
         <v>1200</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="54">
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="44"/>
+      <c r="B15" s="47">
         <v>1300</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52">
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45">
         <v>1400</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="54">
+    <row r="17" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44"/>
+      <c r="B17" s="47">
         <v>1500</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52">
+    <row r="18" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45">
         <v>1600</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="54">
+    <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="44"/>
+      <c r="B19" s="47">
         <v>1700</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52">
+    <row r="20" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="44"/>
+      <c r="B20" s="45">
         <v>1800</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="54">
+    <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="44"/>
+      <c r="B21" s="47">
         <v>1900</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52">
+    <row r="22" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="44"/>
+      <c r="B22" s="45">
         <v>2000</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="51"/>
-      <c r="B23" s="54">
+    <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="44"/>
+      <c r="B23" s="47">
         <v>2100</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52">
+    <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="44"/>
+      <c r="B24" s="45">
         <v>2200</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="54">
+    <row r="25" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="44"/>
+      <c r="B25" s="47">
         <v>2300</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52">
+    <row r="26" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="44"/>
+      <c r="B26" s="45">
         <v>2400</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="54">
+    <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" s="47">
         <v>2500</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52">
+    <row r="28" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45">
         <v>2600</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="51"/>
-      <c r="B29" s="54">
+    <row r="29" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="44"/>
+      <c r="B29" s="47">
         <v>2700</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52">
+    <row r="30" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="44"/>
+      <c r="B30" s="45">
         <v>2800</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="54">
+    <row r="31" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="44"/>
+      <c r="B31" s="47">
         <v>2900</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52">
+    <row r="32" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="44"/>
+      <c r="B32" s="45">
         <v>3000</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="51"/>
-      <c r="B33" s="54">
+    <row r="33" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="44"/>
+      <c r="B33" s="47">
         <v>3100</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52">
+    <row r="34" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="44"/>
+      <c r="B34" s="45">
         <v>3200</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="51"/>
-      <c r="B35" s="54">
+    <row r="35" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="44"/>
+      <c r="B35" s="47">
         <v>3300</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52">
+    <row r="36" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="44"/>
+      <c r="B36" s="45">
         <v>3400</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="51"/>
-      <c r="B37" s="54">
+    <row r="37" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="44"/>
+      <c r="B37" s="47">
         <v>3500</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="48">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="51"/>
-      <c r="B38" s="52">
+    <row r="38" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="44"/>
+      <c r="B38" s="45">
         <v>3600</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="46">
         <v>51.0306904761905</v>
       </c>
     </row>
-    <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="51"/>
-      <c r="B39" s="54">
+    <row r="39" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="44"/>
+      <c r="B39" s="47">
         <v>3700</v>
       </c>
-      <c r="C39" s="56">
-        <v>44.843689833269</v>
-      </c>
-    </row>
-    <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52">
+      <c r="C39" s="49">
+        <v>44.843689833269003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="44"/>
+      <c r="B40" s="45">
         <v>3800</v>
       </c>
-      <c r="C40" s="53">
-        <v>36.8215688218961</v>
-      </c>
-    </row>
-    <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="51"/>
-      <c r="B41" s="54">
+      <c r="C40" s="46">
+        <v>36.821568821896101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="44"/>
+      <c r="B41" s="47">
         <v>3900</v>
       </c>
-      <c r="C41" s="56">
-        <v>30.062728824122</v>
-      </c>
-    </row>
-    <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="51"/>
-      <c r="B42" s="52">
+      <c r="C41" s="49">
+        <v>30.062728824122001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="44"/>
+      <c r="B42" s="45">
         <v>4000</v>
       </c>
-      <c r="C42" s="53">
-        <v>25.3370743140982</v>
-      </c>
-    </row>
-    <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="51"/>
-      <c r="B43" s="54">
+      <c r="C42" s="46">
+        <v>25.337074314098199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="44"/>
+      <c r="B43" s="47">
         <v>4100</v>
       </c>
-      <c r="C43" s="55">
-        <v>21.0374123095361</v>
-      </c>
-    </row>
-    <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52">
+      <c r="C43" s="48">
+        <v>21.037412309536101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="44"/>
+      <c r="B44" s="45">
         <v>4200</v>
       </c>
-      <c r="C44" s="53">
-        <v>17.0840324267782</v>
-      </c>
-    </row>
-    <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="51"/>
-      <c r="B45" s="54">
+      <c r="C44" s="46">
+        <v>17.084032426778201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="44"/>
+      <c r="B45" s="47">
         <v>4300</v>
       </c>
-      <c r="C45" s="55">
+      <c r="C45" s="48">
         <v>13.4184887499186</v>
       </c>
     </row>
-    <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="51"/>
-      <c r="B46" s="52">
+    <row r="46" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="44"/>
+      <c r="B46" s="45">
         <v>4400</v>
       </c>
-      <c r="C46" s="57">
-        <v>9.995926848330519</v>
-      </c>
-    </row>
-    <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="51"/>
-      <c r="B47" s="54">
+      <c r="C46" s="50">
+        <v>9.9959268483305195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="44"/>
+      <c r="B47" s="47">
         <v>4500</v>
       </c>
-      <c r="C47" s="58">
-        <v>6.77696534591492</v>
-      </c>
-    </row>
-    <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="59"/>
-      <c r="B48" s="52">
+      <c r="C47" s="51">
+        <v>6.7769653459149204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="52"/>
+      <c r="B48" s="45">
         <v>4600</v>
       </c>
-      <c r="C48" s="57">
-        <v>3.73957484604455</v>
+      <c r="C48" s="50">
+        <v>3.7395748460445501</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4365,718 +4387,718 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.6719" style="60" customWidth="1"/>
-    <col min="3" max="3" width="15.3516" style="60" customWidth="1"/>
-    <col min="4" max="5" width="8.85156" style="60" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="60" customWidth="1"/>
+    <col min="1" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" t="s" s="61">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="61">
+      <c r="B1" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s" s="62">
+      <c r="C1" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="65">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="57">
         <v>0</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="58">
         <v>2.8</v>
       </c>
-      <c r="C2" s="67">
-        <v>0.09944444400000001</v>
-      </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="65">
-        <v>0.086281277</v>
-      </c>
-      <c r="B3" s="65">
+      <c r="C2" s="59">
+        <v>9.9444444000000007E-2</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="57">
+        <v>8.6281277000000003E-2</v>
+      </c>
+      <c r="B3" s="57">
         <v>2.8</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="65">
-        <v>0.690250216</v>
-      </c>
-      <c r="B4" s="65">
-        <v>2.833202358</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="65">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="57">
+        <v>0.69025021600000003</v>
+      </c>
+      <c r="B4" s="57">
+        <v>2.8332023579999999</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="57">
         <v>1.380500431</v>
       </c>
-      <c r="B5" s="65">
-        <v>2.868958743</v>
-      </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="65">
-        <v>2.415875755</v>
-      </c>
-      <c r="B6" s="65">
-        <v>2.914931238</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="65">
-        <v>3.451251079</v>
-      </c>
-      <c r="B7" s="65">
-        <v>2.966011788</v>
-      </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="65">
-        <v>4.745470233</v>
-      </c>
-      <c r="B8" s="65">
-        <v>3.01453831</v>
-      </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="65">
-        <v>6.298533218</v>
-      </c>
-      <c r="B9" s="65">
-        <v>3.057956778</v>
-      </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="65">
-        <v>7.937877481</v>
-      </c>
-      <c r="B10" s="65">
-        <v>3.098821218</v>
-      </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="65">
-        <v>9.490940466</v>
-      </c>
-      <c r="B11" s="65">
-        <v>3.144793713</v>
-      </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="65">
+      <c r="B5" s="57">
+        <v>2.8689587429999999</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="57">
+        <v>2.4158757550000001</v>
+      </c>
+      <c r="B6" s="57">
+        <v>2.9149312379999999</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57">
+        <v>3.4512510789999999</v>
+      </c>
+      <c r="B7" s="57">
+        <v>2.9660117879999999</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="57">
+        <v>4.7454702329999998</v>
+      </c>
+      <c r="B8" s="57">
+        <v>3.0145383099999998</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="57">
+        <v>6.2985332180000002</v>
+      </c>
+      <c r="B9" s="57">
+        <v>3.0579567779999999</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="57">
+        <v>7.9378774810000001</v>
+      </c>
+      <c r="B10" s="57">
+        <v>3.0988212179999999</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="57">
+        <v>9.4909404659999996</v>
+      </c>
+      <c r="B11" s="57">
+        <v>3.1447937129999999</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="57">
         <v>10.8714409</v>
       </c>
-      <c r="B12" s="65">
-        <v>3.180550098</v>
-      </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="65">
-        <v>12.25194133</v>
-      </c>
-      <c r="B13" s="65">
-        <v>3.216306483</v>
-      </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="65">
+      <c r="B12" s="57">
+        <v>3.1805500979999999</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+    </row>
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="57">
+        <v>12.251941329999999</v>
+      </c>
+      <c r="B13" s="57">
+        <v>3.2163064829999999</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="57">
         <v>13.71872304</v>
       </c>
-      <c r="B14" s="65">
-        <v>3.249508841</v>
-      </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="65">
+      <c r="B14" s="57">
+        <v>3.2495088409999999</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="57">
         <v>15.27178602</v>
       </c>
-      <c r="B15" s="65">
-        <v>3.282711198</v>
-      </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="65">
-        <v>16.91113028</v>
-      </c>
-      <c r="B16" s="65">
-        <v>3.313359528</v>
-      </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="65">
-        <v>18.29163072</v>
-      </c>
-      <c r="B17" s="65">
+      <c r="B15" s="57">
+        <v>3.2827111979999999</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+    </row>
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="57">
+        <v>16.911130279999998</v>
+      </c>
+      <c r="B16" s="57">
+        <v>3.3133595279999999</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+    </row>
+    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="57">
+        <v>18.291630720000001</v>
+      </c>
+      <c r="B17" s="57">
         <v>3.333791749</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="65">
-        <v>20.18981881</v>
-      </c>
-      <c r="B18" s="66">
+      <c r="C17" s="70"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+    </row>
+    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="57">
+        <v>20.189818809999998</v>
+      </c>
+      <c r="B18" s="58">
         <v>3.359332024</v>
       </c>
-      <c r="C18" s="79">
-        <v>0.066666667</v>
-      </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="77"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="65">
+      <c r="C18" s="71">
+        <v>6.6666666999999999E-2</v>
+      </c>
+      <c r="D18" s="72"/>
+      <c r="E18" s="69"/>
+    </row>
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="57">
         <v>21.57031924</v>
       </c>
-      <c r="B19" s="65">
-        <v>3.382318271</v>
-      </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="65">
-        <v>23.46850733</v>
-      </c>
-      <c r="B20" s="65">
+      <c r="B19" s="57">
+        <v>3.3823182709999999</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="57">
+        <v>23.468507330000001</v>
+      </c>
+      <c r="B20" s="57">
         <v>3.395088409</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="65">
+      <c r="C20" s="65"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+    </row>
+    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="57">
         <v>24.84900777</v>
       </c>
-      <c r="B21" s="65">
-        <v>3.412966601</v>
-      </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="65">
+      <c r="B21" s="57">
+        <v>3.4129666009999999</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+    </row>
+    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="57">
         <v>26.66091458</v>
       </c>
-      <c r="B22" s="65">
-        <v>3.428290766</v>
-      </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="65">
-        <v>28.04141501</v>
-      </c>
-      <c r="B23" s="65">
+      <c r="B22" s="57">
+        <v>3.4282907659999999</v>
+      </c>
+      <c r="C22" s="65"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="57">
+        <v>28.041415010000001</v>
+      </c>
+      <c r="B23" s="57">
         <v>3.441060904</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="65">
-        <v>29.85332183</v>
-      </c>
-      <c r="B24" s="65">
-        <v>3.458939096</v>
-      </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="65">
-        <v>31.57894737</v>
-      </c>
-      <c r="B25" s="65">
+      <c r="C23" s="65"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+    </row>
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="57">
+        <v>29.853321829999999</v>
+      </c>
+      <c r="B24" s="57">
+        <v>3.4589390959999999</v>
+      </c>
+      <c r="C24" s="65"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+    </row>
+    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="57">
+        <v>31.578947370000002</v>
+      </c>
+      <c r="B25" s="57">
         <v>3.476817289</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="65">
-        <v>33.39085418</v>
-      </c>
-      <c r="B26" s="65">
+      <c r="C25" s="65"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
+    </row>
+    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="57">
+        <v>33.390854179999998</v>
+      </c>
+      <c r="B26" s="57">
         <v>3.492141454</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="65">
-        <v>35.37532355</v>
-      </c>
-      <c r="B27" s="65">
+      <c r="C26" s="65"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+    </row>
+    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="57">
+        <v>35.375323549999997</v>
+      </c>
+      <c r="B27" s="57">
         <v>3.507465619</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="65">
-        <v>37.35979292</v>
-      </c>
-      <c r="B28" s="65">
+      <c r="C27" s="65"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="57">
+        <v>37.359792919999997</v>
+      </c>
+      <c r="B28" s="57">
         <v>3.522789784</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="65">
-        <v>39.43054357</v>
-      </c>
-      <c r="B29" s="65">
+      <c r="C28" s="65"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
+    </row>
+    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="57">
+        <v>39.430543569999998</v>
+      </c>
+      <c r="B29" s="57">
         <v>3.538113949</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="65">
-        <v>40.98360656</v>
-      </c>
-      <c r="B30" s="66">
-        <v>3.561100196</v>
-      </c>
-      <c r="C30" s="79">
-        <v>0.066111111</v>
-      </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="77"/>
-    </row>
-    <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="65">
-        <v>42.79551337</v>
-      </c>
-      <c r="B31" s="65">
+      <c r="C29" s="70"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+    </row>
+    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="57">
+        <v>40.983606559999998</v>
+      </c>
+      <c r="B30" s="58">
+        <v>3.5611001959999999</v>
+      </c>
+      <c r="C30" s="71">
+        <v>6.6111111E-2</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="69"/>
+    </row>
+    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="57">
+        <v>42.795513370000002</v>
+      </c>
+      <c r="B31" s="57">
         <v>3.573870334</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
-    </row>
-    <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="65">
-        <v>44.86626402</v>
-      </c>
-      <c r="B32" s="65">
+      <c r="C31" s="62"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
+    </row>
+    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="57">
+        <v>44.866264020000003</v>
+      </c>
+      <c r="B32" s="57">
         <v>3.594302554</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-    </row>
-    <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="65">
+      <c r="C32" s="65"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="69"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="57">
         <v>47.1958585</v>
       </c>
-      <c r="B33" s="65">
+      <c r="B33" s="57">
         <v>3.619842829</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="65">
-        <v>49.26660915</v>
-      </c>
-      <c r="B34" s="65">
+      <c r="C33" s="65"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="69"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="57">
+        <v>49.266609150000001</v>
+      </c>
+      <c r="B34" s="57">
         <v>3.642829077</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="77"/>
-    </row>
-    <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="65">
-        <v>51.16479724</v>
-      </c>
-      <c r="B35" s="65">
+      <c r="C34" s="65"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="69"/>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="57">
+        <v>51.164797239999999</v>
+      </c>
+      <c r="B35" s="57">
         <v>3.660707269</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="77"/>
-    </row>
-    <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="65">
-        <v>52.97670406</v>
-      </c>
-      <c r="B36" s="65">
+      <c r="C35" s="65"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="69"/>
+    </row>
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="57">
+        <v>52.976704060000003</v>
+      </c>
+      <c r="B36" s="57">
         <v>3.673477407</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="77"/>
-    </row>
-    <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="65">
-        <v>54.96117343</v>
-      </c>
-      <c r="B37" s="65">
+      <c r="C36" s="65"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
+    </row>
+    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="57">
+        <v>54.961173430000002</v>
+      </c>
+      <c r="B37" s="57">
         <v>3.691355599</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="77"/>
-    </row>
-    <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="65">
-        <v>57.20448663</v>
-      </c>
-      <c r="B38" s="65">
+      <c r="C37" s="65"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="69"/>
+    </row>
+    <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="57">
+        <v>57.204486629999998</v>
+      </c>
+      <c r="B38" s="57">
         <v>3.714341847</v>
       </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="77"/>
-    </row>
-    <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="65">
-        <v>59.10267472</v>
-      </c>
-      <c r="B39" s="66">
+      <c r="C38" s="70"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="69"/>
+    </row>
+    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="57">
+        <v>59.102674720000003</v>
+      </c>
+      <c r="B39" s="58">
         <v>3.732220039</v>
       </c>
-      <c r="C39" s="79">
-        <v>0.06277777800000001</v>
-      </c>
-      <c r="D39" s="80"/>
-      <c r="E39" s="77"/>
-    </row>
-    <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="65">
-        <v>61.00086281</v>
-      </c>
-      <c r="B40" s="65">
+      <c r="C39" s="71">
+        <v>6.2777778000000006E-2</v>
+      </c>
+      <c r="D39" s="72"/>
+      <c r="E39" s="69"/>
+    </row>
+    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="57">
+        <v>61.000862810000001</v>
+      </c>
+      <c r="B40" s="57">
         <v>3.742436149</v>
       </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="77"/>
-    </row>
-    <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="65">
-        <v>63.24417601</v>
-      </c>
-      <c r="B41" s="65">
+      <c r="C40" s="62"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="69"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="57">
+        <v>63.244176009999997</v>
+      </c>
+      <c r="B41" s="57">
         <v>3.760314342</v>
       </c>
-      <c r="C41" s="73"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="77"/>
-    </row>
-    <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="65">
-        <v>65.05608282999999</v>
-      </c>
-      <c r="B42" s="65">
+      <c r="C41" s="65"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="69"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="57">
+        <v>65.056082829999994</v>
+      </c>
+      <c r="B42" s="57">
         <v>3.773084479</v>
       </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="77"/>
-    </row>
-    <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="65">
-        <v>66.86798965</v>
-      </c>
-      <c r="B43" s="65">
+      <c r="C42" s="65"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="69"/>
+    </row>
+    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="57">
+        <v>66.867989649999998</v>
+      </c>
+      <c r="B43" s="57">
         <v>3.785854617</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="77"/>
-    </row>
-    <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="65">
+      <c r="C43" s="65"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="69"/>
+    </row>
+    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="57">
         <v>68.50733391</v>
       </c>
-      <c r="B44" s="65">
+      <c r="B44" s="57">
         <v>3.803732809</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="77"/>
-    </row>
-    <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="65">
-        <v>70.31924072</v>
-      </c>
-      <c r="B45" s="65">
+      <c r="C44" s="65"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="69"/>
+    </row>
+    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="57">
+        <v>70.319240719999996</v>
+      </c>
+      <c r="B45" s="57">
         <v>3.816502947</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="77"/>
-    </row>
-    <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="65">
-        <v>71.78602243</v>
-      </c>
-      <c r="B46" s="65">
+      <c r="C45" s="65"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="69"/>
+    </row>
+    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="57">
+        <v>71.786022430000003</v>
+      </c>
+      <c r="B46" s="57">
         <v>3.834381139</v>
       </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="77"/>
-    </row>
-    <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="65">
-        <v>73.33908542</v>
-      </c>
-      <c r="B47" s="65">
-        <v>3.84459725</v>
-      </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="77"/>
-    </row>
-    <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="65">
-        <v>74.8921484</v>
-      </c>
-      <c r="B48" s="65">
+      <c r="C46" s="65"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="69"/>
+    </row>
+    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="57">
+        <v>73.339085420000004</v>
+      </c>
+      <c r="B47" s="57">
+        <v>3.8445972500000001</v>
+      </c>
+      <c r="C47" s="65"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="69"/>
+    </row>
+    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="57">
+        <v>74.892148399999996</v>
+      </c>
+      <c r="B48" s="57">
         <v>3.862475442</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="77"/>
-    </row>
-    <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" s="65">
-        <v>76.44521139</v>
-      </c>
-      <c r="B49" s="65">
+      <c r="C48" s="65"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="69"/>
+    </row>
+    <row r="49" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="57">
+        <v>76.445211389999997</v>
+      </c>
+      <c r="B49" s="57">
         <v>3.882907662</v>
       </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="77"/>
-    </row>
-    <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="65">
-        <v>77.99827437</v>
-      </c>
-      <c r="B50" s="65">
+      <c r="C49" s="65"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
+    </row>
+    <row r="50" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="57">
+        <v>77.998274370000004</v>
+      </c>
+      <c r="B50" s="57">
         <v>3.903339882</v>
       </c>
-      <c r="C50" s="78"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="77"/>
-    </row>
-    <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="65">
-        <v>79.63761864</v>
-      </c>
-      <c r="B51" s="66">
-        <v>3.91611002</v>
-      </c>
-      <c r="C51" s="79">
-        <v>0.058333333</v>
-      </c>
-      <c r="D51" s="80"/>
-      <c r="E51" s="77"/>
-    </row>
-    <row r="52" ht="13.5" customHeight="1">
-      <c r="A52" s="65">
-        <v>81.79465055999999</v>
-      </c>
-      <c r="B52" s="65">
+      <c r="C50" s="70"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="69"/>
+    </row>
+    <row r="51" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="57">
+        <v>79.637618639999999</v>
+      </c>
+      <c r="B51" s="58">
+        <v>3.9161100200000001</v>
+      </c>
+      <c r="C51" s="71">
+        <v>5.8333333000000001E-2</v>
+      </c>
+      <c r="D51" s="72"/>
+      <c r="E51" s="69"/>
+    </row>
+    <row r="52" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="57">
+        <v>81.794650559999994</v>
+      </c>
+      <c r="B52" s="57">
         <v>3.939096267</v>
       </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="77"/>
-    </row>
-    <row r="53" ht="13.5" customHeight="1">
-      <c r="A53" s="65">
-        <v>83.60655738</v>
-      </c>
-      <c r="B53" s="65">
-        <v>3.951866405</v>
-      </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="77"/>
-    </row>
-    <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" s="65">
-        <v>85.41846418999999</v>
-      </c>
-      <c r="B54" s="65">
+      <c r="C52" s="62"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="69"/>
+    </row>
+    <row r="53" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="57">
+        <v>83.606557379999998</v>
+      </c>
+      <c r="B53" s="57">
+        <v>3.9518664050000001</v>
+      </c>
+      <c r="C53" s="65"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="69"/>
+    </row>
+    <row r="54" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="57">
+        <v>85.418464189999995</v>
+      </c>
+      <c r="B54" s="57">
         <v>3.964636542</v>
       </c>
-      <c r="C54" s="73"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="77"/>
-    </row>
-    <row r="55" ht="13.5" customHeight="1">
-      <c r="A55" s="65">
-        <v>87.66177739</v>
-      </c>
-      <c r="B55" s="65">
-        <v>3.972298625</v>
-      </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="77"/>
-    </row>
-    <row r="56" ht="13.5" customHeight="1">
-      <c r="A56" s="65">
-        <v>89.38740292999999</v>
-      </c>
-      <c r="B56" s="65">
+      <c r="C54" s="65"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="69"/>
+    </row>
+    <row r="55" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="57">
+        <v>87.661777389999997</v>
+      </c>
+      <c r="B55" s="57">
+        <v>3.9722986250000001</v>
+      </c>
+      <c r="C55" s="65"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="69"/>
+    </row>
+    <row r="56" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="57">
+        <v>89.387402929999993</v>
+      </c>
+      <c r="B56" s="57">
         <v>3.974852652</v>
       </c>
-      <c r="C56" s="73"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="77"/>
-    </row>
-    <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="65">
-        <v>91.11302847</v>
-      </c>
-      <c r="B57" s="65">
+      <c r="C56" s="65"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="69"/>
+    </row>
+    <row r="57" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="57">
+        <v>91.113028470000003</v>
+      </c>
+      <c r="B57" s="57">
         <v>3.979960707</v>
       </c>
-      <c r="C57" s="73"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="77"/>
-    </row>
-    <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="65">
-        <v>92.92493528999999</v>
-      </c>
-      <c r="B58" s="65">
-        <v>3.992730845</v>
-      </c>
-      <c r="C58" s="73"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="77"/>
-    </row>
-    <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="65">
-        <v>94.56427954999999</v>
-      </c>
-      <c r="B59" s="65">
-        <v>3.9978389</v>
-      </c>
-      <c r="C59" s="73"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="77"/>
-    </row>
-    <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="65">
-        <v>96.28990509</v>
-      </c>
-      <c r="B60" s="65">
-        <v>4.01827112</v>
-      </c>
-      <c r="C60" s="73"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="77"/>
-    </row>
-    <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="65">
-        <v>97.7566868</v>
-      </c>
-      <c r="B61" s="65">
-        <v>4.033595285</v>
-      </c>
-      <c r="C61" s="78"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="77"/>
-    </row>
-    <row r="62" ht="13.5" customHeight="1">
-      <c r="A62" s="65">
-        <v>99.05090595</v>
-      </c>
-      <c r="B62" s="66">
+      <c r="C57" s="65"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="69"/>
+    </row>
+    <row r="58" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="57">
+        <v>92.924935289999993</v>
+      </c>
+      <c r="B58" s="57">
+        <v>3.9927308450000001</v>
+      </c>
+      <c r="C58" s="65"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="69"/>
+    </row>
+    <row r="59" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="57">
+        <v>94.564279549999995</v>
+      </c>
+      <c r="B59" s="57">
+        <v>3.9978389000000001</v>
+      </c>
+      <c r="C59" s="65"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="69"/>
+    </row>
+    <row r="60" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="57">
+        <v>96.289905090000005</v>
+      </c>
+      <c r="B60" s="57">
+        <v>4.0182711199999996</v>
+      </c>
+      <c r="C60" s="65"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="69"/>
+    </row>
+    <row r="61" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="57">
+        <v>97.756686799999997</v>
+      </c>
+      <c r="B61" s="57">
+        <v>4.0335952849999996</v>
+      </c>
+      <c r="C61" s="70"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="69"/>
+    </row>
+    <row r="62" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="57">
+        <v>99.050905950000001</v>
+      </c>
+      <c r="B62" s="58">
         <v>4.061689587</v>
       </c>
-      <c r="C62" s="79">
-        <v>0.058333333</v>
-      </c>
-      <c r="D62" s="68"/>
-      <c r="E62" s="69"/>
+      <c r="C62" s="71">
+        <v>5.8333333000000001E-2</v>
+      </c>
+      <c r="D62" s="60"/>
+      <c r="E62" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5084,368 +5106,370 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="81" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="81" customWidth="1"/>
+    <col min="1" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.15" customHeight="1">
-      <c r="A1" t="s" s="82">
+    <row r="1" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="82">
+      <c r="B1" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s" s="82">
+      <c r="C1" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s" s="82">
+      <c r="D1" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" ht="13.15" customHeight="1">
-      <c r="A2" t="s" s="84">
+      <c r="E1" s="74"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="85">
-        <v>-184.907</v>
-      </c>
-      <c r="C2" s="86">
-        <v>234.925</v>
-      </c>
-      <c r="D2" s="86">
-        <v>126.241</v>
-      </c>
-      <c r="E2" s="87"/>
-    </row>
-    <row r="3" ht="12.95" customHeight="1">
-      <c r="A3" t="s" s="88">
+      <c r="B2" s="94">
+        <v>200</v>
+      </c>
+      <c r="C2" s="95">
+        <v>203.34700000000001</v>
+      </c>
+      <c r="D2" s="95">
+        <v>126.35</v>
+      </c>
+      <c r="E2" s="76"/>
+    </row>
+    <row r="3" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="89">
-        <v>182.434</v>
-      </c>
-      <c r="C3" s="90">
-        <v>255.272</v>
-      </c>
-      <c r="D3" s="90">
-        <v>126.239</v>
-      </c>
-      <c r="E3" s="87"/>
-    </row>
-    <row r="4" ht="12.95" customHeight="1">
-      <c r="A4" t="s" s="88">
+      <c r="B3" s="96">
+        <v>-200</v>
+      </c>
+      <c r="C3" s="97">
+        <v>225</v>
+      </c>
+      <c r="D3" s="97">
+        <v>126.35</v>
+      </c>
+      <c r="E3" s="76"/>
+    </row>
+    <row r="4" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="89">
-        <v>-12</v>
-      </c>
-      <c r="C4" s="90">
-        <v>588.501</v>
-      </c>
-      <c r="D4" s="90">
-        <v>141</v>
-      </c>
-      <c r="E4" s="87"/>
-    </row>
-    <row r="5" ht="12.95" customHeight="1">
-      <c r="A5" t="s" s="88">
+      <c r="B4" s="96">
+        <v>11.981999999999999</v>
+      </c>
+      <c r="C4" s="97">
+        <v>588.50099999999998</v>
+      </c>
+      <c r="D4" s="97">
+        <v>193</v>
+      </c>
+      <c r="E4" s="76"/>
+    </row>
+    <row r="5" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="89">
-        <v>-132.944</v>
-      </c>
-      <c r="C5" s="90">
-        <v>237.912</v>
-      </c>
-      <c r="D5" s="90">
-        <v>326.532</v>
-      </c>
-      <c r="E5" s="87"/>
-    </row>
-    <row r="6" ht="12.95" customHeight="1">
-      <c r="A6" t="s" s="88">
+      <c r="B5" s="96">
+        <v>148.751</v>
+      </c>
+      <c r="C5" s="97">
+        <v>207.047</v>
+      </c>
+      <c r="D5" s="97">
+        <v>321.79399999999998</v>
+      </c>
+      <c r="E5" s="76"/>
+    </row>
+    <row r="6" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="89">
-        <v>167.448</v>
-      </c>
-      <c r="C6" s="90">
-        <v>254.64</v>
-      </c>
-      <c r="D6" s="90">
-        <v>307.812</v>
-      </c>
-      <c r="E6" s="87"/>
-    </row>
-    <row r="7" ht="12.95" customHeight="1">
-      <c r="A7" t="s" s="88">
+      <c r="B6" s="96">
+        <v>-184.72900000000001</v>
+      </c>
+      <c r="C6" s="97">
+        <v>225</v>
+      </c>
+      <c r="D6" s="97">
+        <v>300.89400000000001</v>
+      </c>
+      <c r="E6" s="76"/>
+    </row>
+    <row r="7" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="89">
-        <v>12</v>
-      </c>
-      <c r="C7" s="90">
-        <v>521</v>
-      </c>
-      <c r="D7" s="90">
-        <v>370</v>
-      </c>
-      <c r="E7" s="87"/>
-    </row>
-    <row r="8" ht="12.95" customHeight="1">
-      <c r="A8" t="s" s="88">
+      <c r="B7" s="96">
+        <v>-12.087</v>
+      </c>
+      <c r="C7" s="97">
+        <v>521.10299999999995</v>
+      </c>
+      <c r="D7" s="97">
+        <v>422</v>
+      </c>
+      <c r="E7" s="76"/>
+    </row>
+    <row r="8" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="89">
+      <c r="B8" s="96">
         <v>0</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="97">
         <v>640</v>
       </c>
-      <c r="D8" s="90">
-        <v>250.827</v>
-      </c>
-      <c r="E8" s="87"/>
-    </row>
-    <row r="9" ht="12.95" customHeight="1">
-      <c r="A9" t="s" s="88">
+      <c r="D8" s="97">
+        <v>255</v>
+      </c>
+      <c r="E8" s="76"/>
+    </row>
+    <row r="9" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="89">
+      <c r="B9" s="96">
         <v>0</v>
       </c>
-      <c r="C9" s="90">
+      <c r="C9" s="97">
         <v>640</v>
       </c>
-      <c r="D9" s="90">
-        <v>250.827</v>
-      </c>
-      <c r="E9" s="87"/>
-    </row>
-    <row r="10" ht="12.95" customHeight="1">
-      <c r="A10" t="s" s="88">
+      <c r="D9" s="97">
+        <v>255</v>
+      </c>
+      <c r="E9" s="76"/>
+    </row>
+    <row r="10" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="89">
-        <v>-104.241</v>
-      </c>
-      <c r="C10" s="90">
+      <c r="B10" s="96">
+        <v>104.241</v>
+      </c>
+      <c r="C10" s="97">
         <v>250</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="97">
         <v>171.053</v>
       </c>
-      <c r="E10" s="87"/>
-    </row>
-    <row r="11" ht="12.95" customHeight="1">
-      <c r="A11" t="s" s="88">
+      <c r="E10" s="76"/>
+    </row>
+    <row r="11" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="89">
-        <v>-86.252</v>
-      </c>
-      <c r="C11" s="90">
-        <v>575.546</v>
-      </c>
-      <c r="D11" s="90">
-        <v>195</v>
-      </c>
-      <c r="E11" s="87"/>
-    </row>
-    <row r="12" ht="12.95" customHeight="1">
-      <c r="A12" t="s" s="88">
+      <c r="B11" s="96">
+        <v>106.239</v>
+      </c>
+      <c r="C11" s="97">
+        <v>576.28</v>
+      </c>
+      <c r="D11" s="97">
+        <v>247</v>
+      </c>
+      <c r="E11" s="76"/>
+    </row>
+    <row r="12" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="89">
-        <v>-11.157</v>
-      </c>
-      <c r="C12" s="90">
+      <c r="B12" s="96">
+        <v>11.157</v>
+      </c>
+      <c r="C12" s="97">
         <v>233.131</v>
       </c>
-      <c r="D12" s="90">
-        <v>517.551</v>
-      </c>
-      <c r="E12" s="87"/>
-    </row>
-    <row r="13" ht="12.95" customHeight="1">
-      <c r="A13" t="s" s="88">
+      <c r="D12" s="97">
+        <v>517.55100000000004</v>
+      </c>
+      <c r="E12" s="76"/>
+    </row>
+    <row r="13" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="89">
-        <v>-11.485</v>
-      </c>
-      <c r="C13" s="90">
-        <v>317.842</v>
-      </c>
-      <c r="D13" s="90">
+      <c r="B13" s="96">
+        <v>11.484999999999999</v>
+      </c>
+      <c r="C13" s="97">
+        <v>317.84199999999998</v>
+      </c>
+      <c r="D13" s="97">
         <v>362.43</v>
       </c>
-      <c r="E13" s="87"/>
-    </row>
-    <row r="14" ht="12.95" customHeight="1">
-      <c r="A14" t="s" s="88">
+      <c r="E13" s="76"/>
+    </row>
+    <row r="14" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="89">
-        <v>67.965</v>
-      </c>
-      <c r="C14" s="90">
-        <v>262.855</v>
-      </c>
-      <c r="D14" s="90">
+      <c r="B14" s="96">
+        <v>67.965000000000003</v>
+      </c>
+      <c r="C14" s="97">
+        <v>262.85500000000002</v>
+      </c>
+      <c r="D14" s="97">
         <v>101.35</v>
       </c>
-      <c r="E14" s="87"/>
-    </row>
-    <row r="15" ht="12.95" customHeight="1">
-      <c r="A15" t="s" s="88">
+      <c r="E14" s="76"/>
+    </row>
+    <row r="15" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="89">
-        <v>-12.038</v>
-      </c>
-      <c r="C15" s="90">
-        <v>262.849</v>
-      </c>
-      <c r="D15" s="90">
-        <v>101.519</v>
-      </c>
-      <c r="E15" s="87"/>
-    </row>
-    <row r="16" ht="12.95" customHeight="1">
-      <c r="A16" t="s" s="88">
+      <c r="B15" s="96">
+        <v>4</v>
+      </c>
+      <c r="C15" s="97">
+        <v>262.84899999999999</v>
+      </c>
+      <c r="D15" s="97">
+        <v>101.51900000000001</v>
+      </c>
+      <c r="E15" s="76"/>
+    </row>
+    <row r="16" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="89">
-        <v>-11.531</v>
-      </c>
-      <c r="C16" s="90">
-        <v>286.508</v>
-      </c>
-      <c r="D16" s="90">
-        <v>331.062</v>
-      </c>
-      <c r="E16" s="87"/>
-    </row>
-    <row r="17" ht="12.95" customHeight="1">
-      <c r="A17" t="s" s="88">
+      <c r="B16" s="96">
+        <v>11.526999999999999</v>
+      </c>
+      <c r="C16" s="97">
+        <v>292.24599999999998</v>
+      </c>
+      <c r="D16" s="97">
+        <v>342.81599999999997</v>
+      </c>
+      <c r="E16" s="76"/>
+    </row>
+    <row r="17" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="89">
-        <v>-104.241</v>
-      </c>
-      <c r="C17" s="90">
+      <c r="B17" s="96">
+        <v>104.241</v>
+      </c>
+      <c r="C17" s="97">
         <v>0</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="97">
         <v>171.053</v>
       </c>
-      <c r="E17" s="87"/>
-    </row>
-    <row r="18" ht="12.95" customHeight="1">
-      <c r="A18" t="s" s="88">
+      <c r="E17" s="76"/>
+    </row>
+    <row r="18" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="89">
-        <v>237.923</v>
-      </c>
-      <c r="C18" s="90">
+      <c r="B18" s="96">
+        <v>-324.96499999999997</v>
+      </c>
+      <c r="C18" s="97">
         <v>0</v>
       </c>
-      <c r="D18" s="90">
-        <v>569.328</v>
-      </c>
-      <c r="E18" s="87"/>
-    </row>
-    <row r="19" ht="12.95" customHeight="1">
-      <c r="A19" t="s" s="88">
+      <c r="D18" s="97">
+        <v>533.79200000000003</v>
+      </c>
+      <c r="E18" s="76"/>
+    </row>
+    <row r="19" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="89">
-        <v>-104.241</v>
-      </c>
-      <c r="C19" s="90">
+      <c r="B19" s="96">
+        <v>104.241</v>
+      </c>
+      <c r="C19" s="97">
         <v>0</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D19" s="97">
         <v>171.053</v>
       </c>
-      <c r="E19" s="87"/>
-    </row>
-    <row r="20" ht="12.95" customHeight="1">
-      <c r="A20" t="s" s="88">
+      <c r="E19" s="76"/>
+    </row>
+    <row r="20" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="96">
+        <v>11.489000000000001</v>
+      </c>
+      <c r="C20" s="97">
+        <v>351.53699999999998</v>
+      </c>
+      <c r="D20" s="97">
+        <v>360.94299999999998</v>
+      </c>
+      <c r="E20" s="76"/>
+    </row>
+    <row r="21" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="96">
+        <v>11.917</v>
+      </c>
+      <c r="C21" s="97">
+        <v>547.36</v>
+      </c>
+      <c r="D21" s="97">
+        <v>221.41499999999999</v>
+      </c>
+      <c r="E21" s="76"/>
+    </row>
+    <row r="22" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="96">
+        <v>11.558</v>
+      </c>
+      <c r="C22" s="97">
+        <v>244.43100000000001</v>
+      </c>
+      <c r="D22" s="97">
+        <v>328.19799999999998</v>
+      </c>
+      <c r="E22" s="80"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="89">
+      <c r="B23" s="78">
         <v>20</v>
       </c>
-      <c r="C20" s="90">
+      <c r="C23" s="79">
         <v>0</v>
       </c>
-      <c r="D20" s="90">
-        <v>534.181</v>
-      </c>
-      <c r="E20" s="87"/>
-    </row>
-    <row r="21" ht="12.95" customHeight="1">
-      <c r="A21" t="s" s="88">
-        <v>119</v>
-      </c>
-      <c r="B21" s="89">
-        <v>-11.558</v>
-      </c>
-      <c r="C21" s="90">
-        <v>244.431</v>
-      </c>
-      <c r="D21" s="90">
-        <v>328.198</v>
-      </c>
-      <c r="E21" s="87"/>
-    </row>
-    <row r="22" ht="12.95" customHeight="1">
-      <c r="A22" t="s" s="88">
-        <v>120</v>
-      </c>
-      <c r="B22" s="89">
-        <v>-11.917</v>
-      </c>
-      <c r="C22" s="90">
-        <v>547.36</v>
-      </c>
-      <c r="D22" s="90">
-        <v>169.145</v>
-      </c>
-      <c r="E22" s="87"/>
-    </row>
-    <row r="23" ht="12.95" customHeight="1">
-      <c r="A23" t="s" s="88">
-        <v>121</v>
-      </c>
-      <c r="B23" s="89">
-        <v>-11.489</v>
-      </c>
-      <c r="C23" s="90">
-        <v>351.537</v>
-      </c>
-      <c r="D23" s="90">
-        <v>360.943</v>
-      </c>
-      <c r="E23" s="91"/>
+      <c r="D23" s="79">
+        <v>534.18100000000004</v>
+      </c>
+      <c r="E23" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5453,322 +5477,310 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="92" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="92" customWidth="1"/>
+    <col min="1" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.15" customHeight="1">
-      <c r="A1" t="s" s="82">
+    <row r="1" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="82">
+      <c r="B1" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s" s="82">
+      <c r="C1" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s" s="82">
+      <c r="D1" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" ht="13.15" customHeight="1">
-      <c r="A2" t="s" s="84">
+      <c r="E1" s="74"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="85" cm="1">
-        <f t="array" ref="B2">1408.851-1575</f>
-        <v>-166.149</v>
-      </c>
-      <c r="C2" s="86">
-        <v>334.489</v>
-      </c>
-      <c r="D2" s="86">
-        <v>126.216</v>
-      </c>
-      <c r="E2" s="87"/>
-    </row>
-    <row r="3" ht="12.95" customHeight="1">
-      <c r="A3" t="s" s="88">
+      <c r="B2" s="94">
+        <v>-1390</v>
+      </c>
+      <c r="C2" s="95">
+        <v>305</v>
+      </c>
+      <c r="D2" s="95">
+        <v>126.35</v>
+      </c>
+      <c r="E2" s="76"/>
+    </row>
+    <row r="3" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="89" cm="1">
-        <f t="array" ref="B3">1799.859-1575</f>
-        <v>224.859</v>
-      </c>
-      <c r="C3" s="90">
-        <v>309.894</v>
-      </c>
-      <c r="D3" s="90">
-        <v>126.188</v>
-      </c>
-      <c r="E3" s="87"/>
-    </row>
-    <row r="4" ht="12.95" customHeight="1">
-      <c r="A4" t="s" s="88">
+      <c r="B3" s="96">
+        <v>-1830</v>
+      </c>
+      <c r="C3" s="97">
+        <v>270</v>
+      </c>
+      <c r="D3" s="97">
+        <v>126.35</v>
+      </c>
+      <c r="E3" s="76"/>
+    </row>
+    <row r="4" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="89" cm="1">
-        <f t="array" ref="B4">1579.278-1575</f>
-        <v>4.278</v>
-      </c>
-      <c r="C4" s="90">
-        <v>574</v>
-      </c>
-      <c r="D4" s="90">
-        <v>132.5</v>
-      </c>
-      <c r="E4" s="87"/>
-    </row>
-    <row r="5" ht="12.95" customHeight="1">
-      <c r="A5" t="s" s="88">
+      <c r="B4" s="96">
+        <v>-1579.278</v>
+      </c>
+      <c r="C4" s="97">
+        <v>574.49699999999996</v>
+      </c>
+      <c r="D4" s="97">
+        <v>154.5</v>
+      </c>
+      <c r="E4" s="76"/>
+    </row>
+    <row r="5" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="89" cm="1">
-        <f t="array" ref="B5">1412.858-1575</f>
-        <v>-162.142</v>
-      </c>
-      <c r="C5" s="90">
-        <v>330.769</v>
-      </c>
-      <c r="D5" s="90">
-        <v>335.182</v>
-      </c>
-      <c r="E5" s="87"/>
-    </row>
-    <row r="6" ht="12.95" customHeight="1">
-      <c r="A6" t="s" s="88">
+      <c r="B5" s="96">
+        <v>-1390</v>
+      </c>
+      <c r="C5" s="97">
+        <v>305</v>
+      </c>
+      <c r="D5" s="97">
+        <v>328.98099999999999</v>
+      </c>
+      <c r="E5" s="76"/>
+    </row>
+    <row r="6" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="89" cm="1">
-        <f t="array" ref="B6">1804.308-1575</f>
-        <v>229.308</v>
-      </c>
-      <c r="C6" s="90">
-        <v>293.653</v>
-      </c>
-      <c r="D6" s="90">
-        <v>356.806</v>
-      </c>
-      <c r="E6" s="87"/>
-    </row>
-    <row r="7" ht="12.95" customHeight="1">
-      <c r="A7" t="s" s="88">
+      <c r="B6" s="96">
+        <v>-1830</v>
+      </c>
+      <c r="C6" s="97">
+        <v>270</v>
+      </c>
+      <c r="D6" s="97">
+        <v>354.47500000000002</v>
+      </c>
+      <c r="E6" s="76"/>
+    </row>
+    <row r="7" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="89" cm="1">
-        <f t="array" ref="B7">1570.705-1575</f>
-        <v>-4.295</v>
-      </c>
-      <c r="C7" s="90">
-        <v>508.715</v>
-      </c>
-      <c r="D7" s="90">
-        <v>378</v>
-      </c>
-      <c r="E7" s="87"/>
-    </row>
-    <row r="8" ht="12.95" customHeight="1">
-      <c r="A8" t="s" s="88">
+      <c r="B7" s="96">
+        <v>-1570.7049999999999</v>
+      </c>
+      <c r="C7" s="97">
+        <v>508.71499999999997</v>
+      </c>
+      <c r="D7" s="97">
+        <v>400</v>
+      </c>
+      <c r="E7" s="76"/>
+    </row>
+    <row r="8" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="89" cm="1">
-        <f t="array" ref="B8">1575-1575</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="90">
+      <c r="B8" s="96">
+        <v>-1575</v>
+      </c>
+      <c r="C8" s="97">
         <v>625</v>
       </c>
-      <c r="D8" s="90">
-        <v>250.827</v>
-      </c>
-      <c r="E8" s="87"/>
-    </row>
-    <row r="9" ht="12.95" customHeight="1">
-      <c r="A9" t="s" s="88">
+      <c r="D8" s="97">
+        <v>255</v>
+      </c>
+      <c r="E8" s="76"/>
+    </row>
+    <row r="9" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="89" cm="1">
-        <f t="array" ref="B9">-1575+1575</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="90">
+      <c r="B9" s="96">
+        <v>-1575</v>
+      </c>
+      <c r="C9" s="97">
         <v>625</v>
       </c>
-      <c r="D9" s="90">
-        <v>250.827</v>
-      </c>
-      <c r="E9" s="87"/>
-    </row>
-    <row r="10" ht="12.95" customHeight="1">
-      <c r="A10" t="s" s="88">
+      <c r="D9" s="97">
+        <v>255</v>
+      </c>
+      <c r="E9" s="76"/>
+    </row>
+    <row r="10" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="89" cm="1">
-        <f t="array" ref="B10">-1575+1832.113</f>
-        <v>257.113</v>
-      </c>
-      <c r="C10" s="90">
-        <v>301.223</v>
-      </c>
-      <c r="D10" s="90">
-        <v>194.314</v>
-      </c>
-      <c r="E10" s="87"/>
-    </row>
-    <row r="11" ht="12.95" customHeight="1">
-      <c r="A11" t="s" s="88">
+      <c r="B10" s="96">
+        <v>-1830</v>
+      </c>
+      <c r="C10" s="97">
+        <v>270</v>
+      </c>
+      <c r="D10" s="97">
+        <v>193.642</v>
+      </c>
+      <c r="E10" s="76"/>
+    </row>
+    <row r="11" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="89" cm="1">
-        <f t="array" ref="B11">-1575+1676.222</f>
-        <v>101.222</v>
-      </c>
-      <c r="C11" s="90">
+      <c r="B11" s="96">
+        <v>-1676.222</v>
+      </c>
+      <c r="C11" s="97">
         <v>578</v>
       </c>
-      <c r="D11" s="90">
-        <v>220</v>
-      </c>
-      <c r="E11" s="87"/>
-    </row>
-    <row r="12" ht="12.95" customHeight="1">
-      <c r="A12" t="s" s="88">
+      <c r="D11" s="97">
+        <v>242</v>
+      </c>
+      <c r="E11" s="76"/>
+    </row>
+    <row r="12" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="89">
-        <v>-180.976</v>
-      </c>
-      <c r="C12" s="90">
-        <v>283.39</v>
-      </c>
-      <c r="D12" s="90">
-        <v>436.103</v>
-      </c>
-      <c r="E12" s="87"/>
-    </row>
-    <row r="13" ht="12.95" customHeight="1">
-      <c r="A13" t="s" s="88">
+      <c r="B12" s="96">
+        <v>-1395.9760000000001</v>
+      </c>
+      <c r="C12" s="97">
+        <v>283.399</v>
+      </c>
+      <c r="D12" s="97">
+        <v>436.10300000000001</v>
+      </c>
+      <c r="E12" s="76"/>
+    </row>
+    <row r="13" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="89" cm="1">
-        <f t="array" ref="B13">-1575+1579.111</f>
-        <v>4.111</v>
-      </c>
-      <c r="C13" s="90">
-        <v>267.073</v>
-      </c>
-      <c r="D13" s="90">
+      <c r="B13" s="96">
+        <v>-1579.1110000000001</v>
+      </c>
+      <c r="C13" s="97">
+        <v>267.07299999999998</v>
+      </c>
+      <c r="D13" s="97">
         <v>484.01</v>
       </c>
-      <c r="E13" s="87"/>
-    </row>
-    <row r="14" ht="12.95" customHeight="1">
-      <c r="A14" t="s" s="88">
+      <c r="E13" s="76"/>
+    </row>
+    <row r="14" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="89" cm="1">
-        <f t="array" ref="B14">-1575+1830</f>
-        <v>255</v>
-      </c>
-      <c r="C14" s="90">
+      <c r="B14" s="96">
+        <v>-1830</v>
+      </c>
+      <c r="C14" s="97">
         <v>305</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="97">
         <v>401.35</v>
       </c>
-      <c r="E14" s="87"/>
-    </row>
-    <row r="15" ht="12.95" customHeight="1">
-      <c r="A15" t="s" s="88">
+      <c r="E14" s="76"/>
+    </row>
+    <row r="15" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="89" cm="1">
-        <f t="array" ref="B15">-1575+1830</f>
-        <v>255</v>
-      </c>
-      <c r="C15" s="90">
+      <c r="B15" s="96">
+        <v>-1830</v>
+      </c>
+      <c r="C15" s="97">
         <v>305</v>
       </c>
-      <c r="D15" s="90">
-        <v>480.697</v>
-      </c>
-      <c r="E15" s="87"/>
-    </row>
-    <row r="16" ht="12.95" customHeight="1">
-      <c r="A16" t="s" s="88">
+      <c r="D15" s="97">
+        <v>465.35</v>
+      </c>
+      <c r="E15" s="76"/>
+    </row>
+    <row r="16" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="89" cm="1">
-        <f t="array" ref="B16">-1575+1625</f>
-        <v>50</v>
-      </c>
-      <c r="C16" s="90">
-        <v>287.567</v>
-      </c>
-      <c r="D16" s="90">
+      <c r="B16" s="96">
+        <v>-1600.4860000000001</v>
+      </c>
+      <c r="C16" s="97">
+        <v>287.56599999999997</v>
+      </c>
+      <c r="D16" s="97">
         <v>463.988</v>
       </c>
-      <c r="E16" s="87"/>
-    </row>
-    <row r="17" ht="12.95" customHeight="1">
-      <c r="A17" t="s" s="88">
+      <c r="E16" s="76"/>
+    </row>
+    <row r="17" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="96">
+        <v>-1664.6120000000001</v>
+      </c>
+      <c r="C17" s="97">
+        <v>349.04700000000003</v>
+      </c>
+      <c r="D17" s="97">
+        <v>403.92399999999998</v>
+      </c>
+      <c r="E17" s="76"/>
+    </row>
+    <row r="18" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="96">
+        <v>-1597.298</v>
+      </c>
+      <c r="C18" s="97">
+        <v>527.85900000000004</v>
+      </c>
+      <c r="D18" s="97">
+        <v>174.50399999999999</v>
+      </c>
+      <c r="E18" s="76"/>
+    </row>
+    <row r="19" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="89">
-        <v>10.771</v>
-      </c>
-      <c r="C17" s="90">
-        <v>318.427</v>
-      </c>
-      <c r="D17" s="90">
-        <v>426.36</v>
-      </c>
-      <c r="E17" s="87"/>
-    </row>
-    <row r="18" ht="12.95" customHeight="1">
-      <c r="A18" t="s" s="88">
-        <v>120</v>
-      </c>
-      <c r="B18" s="89">
-        <v>22.298</v>
-      </c>
-      <c r="C18" s="90">
-        <v>527.859</v>
-      </c>
-      <c r="D18" s="90">
-        <v>152.504</v>
-      </c>
-      <c r="E18" s="87"/>
-    </row>
-    <row r="19" ht="12.95" customHeight="1">
-      <c r="A19" t="s" s="88">
-        <v>121</v>
-      </c>
-      <c r="B19" s="89">
-        <v>89.61199999999999</v>
-      </c>
-      <c r="C19" s="90">
-        <v>349.047</v>
-      </c>
-      <c r="D19" s="90">
-        <v>403.924</v>
-      </c>
-      <c r="E19" s="91"/>
+      <c r="B19" s="96">
+        <v>-1585.771</v>
+      </c>
+      <c r="C19" s="97">
+        <v>318.42700000000002</v>
+      </c>
+      <c r="D19" s="97">
+        <v>426.35</v>
+      </c>
+      <c r="E19" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5776,124 +5788,124 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.3516" style="93" customWidth="1"/>
-    <col min="2" max="5" width="16.3516" style="93" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="93" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.15" customHeight="1">
-      <c r="A1" t="s" s="94">
+    <row r="1" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="B1" t="s" s="94">
+      <c r="C1" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="C1" t="s" s="94">
+      <c r="D1" s="82"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="75"/>
-    </row>
-    <row r="2" ht="13.15" customHeight="1">
-      <c r="A2" t="s" s="96">
+      <c r="B2" s="84">
+        <v>52538.050499999998</v>
+      </c>
+      <c r="C2" s="85">
+        <v>43781.708749999998</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="69"/>
+    </row>
+    <row r="3" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="97">
-        <v>52538.0505</v>
-      </c>
-      <c r="C2" s="98">
-        <v>43781.70875</v>
-      </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="77"/>
-    </row>
-    <row r="3" ht="12.95" customHeight="1">
-      <c r="A3" t="s" s="99">
+      <c r="B3" s="87">
+        <v>0.01</v>
+      </c>
+      <c r="C3" s="88">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="69"/>
+    </row>
+    <row r="4" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="100">
-        <v>0.01</v>
-      </c>
-      <c r="C3" s="101">
-        <v>0.01</v>
-      </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="77"/>
-    </row>
-    <row r="4" ht="12.95" customHeight="1">
-      <c r="A4" t="s" s="99">
+      <c r="B4" s="87">
+        <v>250000</v>
+      </c>
+      <c r="C4" s="88">
+        <v>250000</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="69"/>
+    </row>
+    <row r="5" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="100">
-        <v>250000</v>
-      </c>
-      <c r="C4" s="101">
-        <v>250000</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="77"/>
-    </row>
-    <row r="5" ht="12.95" customHeight="1">
-      <c r="A5" t="s" s="99">
-        <v>128</v>
-      </c>
-      <c r="B5" s="102">
-        <v>81.93300000000001</v>
-      </c>
-      <c r="C5" s="103">
-        <v>61.8794</v>
-      </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="77"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="73"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="69"/>
+      <c r="B5" s="89">
+        <v>81.933000000000007</v>
+      </c>
+      <c r="C5" s="90">
+        <v>61.879399999999997</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="69"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="62"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="65"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="65"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="65"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="92"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Scripts_Data/Data_Vehicle/ARTTU.xlsx
+++ b/Scripts_Data/Data_Vehicle/ARTTU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Desktop/FSAE/Motor Control/VehicleModel/Scripts_Data/Data_Vehicle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Desktop/FSAE/Vehicle Model/Main/Develop/Scripts_Data/Data_Vehicle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AF3101-8249-CE4D-866D-452CCC23842D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA83AF4-EF73-7D47-88BD-934E260F22E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="1360" windowWidth="25360" windowHeight="18980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8080" yWindow="1360" windowWidth="25360" windowHeight="18980" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -5112,8 +5112,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="109" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5178,7 +5178,7 @@
         <v>588.50099999999998</v>
       </c>
       <c r="D4" s="97">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="76"/>
     </row>
@@ -5483,8 +5483,8 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5654,7 +5654,7 @@
         <v>578</v>
       </c>
       <c r="D11" s="97">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E11" s="76"/>
     </row>
